--- a/data/trans_dic/P15B_tráfico-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15B_tráfico-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1284838381153386</v>
+        <v>0.1203065590426552</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1420652619978484</v>
+        <v>0.1358186559571617</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08268164977501377</v>
+        <v>0.0822887233461945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.128996897855105</v>
+        <v>0.1332068008777658</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0408744416653281</v>
+        <v>0.04126808426437201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05396138541482001</v>
+        <v>0.05205375093489254</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03658544317280286</v>
+        <v>0.03634502618411845</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05765113525816385</v>
+        <v>0.05409594739558718</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09609891445950416</v>
+        <v>0.09500942738025171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1054262316395178</v>
+        <v>0.1048224022608536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06681183162189656</v>
+        <v>0.06595866665218439</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09368921268401574</v>
+        <v>0.09495146901081454</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4857300172836329</v>
+        <v>0.4938196595766443</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3505044310892997</v>
+        <v>0.3579272133404998</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2957592751495131</v>
+        <v>0.2932352971425345</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.420181049785339</v>
+        <v>0.4131701008887915</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2281017738715802</v>
+        <v>0.2250384935702019</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.166072709867452</v>
+        <v>0.1717581387637855</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1966403323401711</v>
+        <v>0.1760248820470981</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1524769175192768</v>
+        <v>0.1514504993301272</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2669992792867514</v>
+        <v>0.2715070529700179</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2151268321189262</v>
+        <v>0.2202876439618054</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1911420340300529</v>
+        <v>0.185000938540757</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2119308587498908</v>
+        <v>0.2092134669549116</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2450131233229721</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2388902975892953</v>
+        <v>0.2388902975892954</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3100229203058921</v>
@@ -833,7 +833,7 @@
         <v>0.2515311541695459</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2625872104029771</v>
+        <v>0.262587210402977</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.241148867251874</v>
+        <v>0.2368014377609799</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2013817180536576</v>
+        <v>0.2012125391845323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1704647850771341</v>
+        <v>0.1715589584011837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1644073937604216</v>
+        <v>0.1659004973398094</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.180321547817116</v>
+        <v>0.1604730405364645</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1759882371112436</v>
+        <v>0.1699231630723364</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1770361069040417</v>
+        <v>0.1799871119615931</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2072757523952146</v>
+        <v>0.209464624892894</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2505817024615176</v>
+        <v>0.2453285868418265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2056245656588551</v>
+        <v>0.2105272388622538</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1927109594238381</v>
+        <v>0.1939428519765994</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.20124597683584</v>
+        <v>0.2060677322792197</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4553145420165181</v>
+        <v>0.4587857106656682</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3283877227861763</v>
+        <v>0.338146613265729</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3385457570525161</v>
+        <v>0.3344678085814684</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3254490298908643</v>
+        <v>0.3263804854408392</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5030964745590356</v>
+        <v>0.4691976769186949</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3396990898804975</v>
+        <v>0.3343063160767185</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.360558567078373</v>
+        <v>0.3717954141047569</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4019793870589835</v>
+        <v>0.4029787978150947</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4241501988932941</v>
+        <v>0.4286157384138936</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3097708229054422</v>
+        <v>0.3130469328949907</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3195409194709638</v>
+        <v>0.320848649778288</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3253658794483417</v>
+        <v>0.324002567399145</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1496594920414479</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.34247410116674</v>
+        <v>0.3424741011667399</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.118720282864014</v>
+        <v>0.1099873960295455</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0866941531470045</v>
+        <v>0.1057416173405963</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06666169557916947</v>
+        <v>0.06602803516785109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2184420359103317</v>
+        <v>0.2135818968133944</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07324843298570229</v>
+        <v>0.07115419517394206</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.142677596649992</v>
+        <v>0.143431934330972</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02947155765159457</v>
+        <v>0.03045536445245854</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1687872312930795</v>
+        <v>0.1665382061829555</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1521360546607939</v>
+        <v>0.1759769595438749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1572583021786161</v>
+        <v>0.1550602721736911</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06985183028505115</v>
+        <v>0.07049591987561094</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2432512271623569</v>
+        <v>0.2302453476659483</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.594610081864791</v>
+        <v>0.5922011889158583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4130888860350029</v>
+        <v>0.4581433755089506</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3675515774463009</v>
+        <v>0.3789514587721871</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6108921073320579</v>
+        <v>0.607937762520165</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5994315821543713</v>
+        <v>0.5823656090907318</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5104447108627417</v>
+        <v>0.5088149439181676</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2852833822022731</v>
+        <v>0.3180103729195998</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4179408066221924</v>
+        <v>0.4027453559055711</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4978105870527889</v>
+        <v>0.5159774655833514</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4114017999738309</v>
+        <v>0.4114826555938608</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2800976218340468</v>
+        <v>0.2667304065527952</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4750353720644788</v>
+        <v>0.4933128592425093</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1937411029827125</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2440080821813011</v>
+        <v>0.244008082181301</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2389397888752874</v>
+        <v>0.2430528341255305</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.201732473690074</v>
+        <v>0.1991297441085603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.168818249908955</v>
+        <v>0.160760008813999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2027282007573991</v>
+        <v>0.2108037551199302</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1316904500080397</v>
+        <v>0.133595793279521</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.144664184189985</v>
+        <v>0.137585550048613</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1186644548354692</v>
+        <v>0.1180463624590602</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1692536837265137</v>
+        <v>0.1691595687818404</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2153103892925158</v>
+        <v>0.2093866616748172</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1898093735320222</v>
+        <v>0.1867900489764671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1583958270185369</v>
+        <v>0.1525598091723703</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1995760086292353</v>
+        <v>0.1996588224079112</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4146209890218554</v>
+        <v>0.4179216967580174</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3087416948234137</v>
+        <v>0.3076195807482843</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.285339362079686</v>
+        <v>0.2797553558334678</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3525787206493812</v>
+        <v>0.3436754507175326</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3045724217322173</v>
+        <v>0.3003397287403855</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2435895379763178</v>
+        <v>0.2393188441249156</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.22975898931318</v>
+        <v>0.2279754496763468</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2823127740071041</v>
+        <v>0.2854578744258647</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3407194650105247</v>
+        <v>0.3379099505237056</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2614881401516879</v>
+        <v>0.2599281297176599</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2412234912205023</v>
+        <v>0.2383306728848302</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2924290347661527</v>
+        <v>0.2935606942811238</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3234</v>
+        <v>3029</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10902</v>
+        <v>10423</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3712</v>
+        <v>3695</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4882</v>
+        <v>5041</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1861</v>
+        <v>1879</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6094</v>
+        <v>5879</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2729</v>
+        <v>2711</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4873</v>
+        <v>4572</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6794</v>
+        <v>6717</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19997</v>
+        <v>19882</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7984</v>
+        <v>7882</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11464</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12228</v>
+        <v>12431</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26898</v>
+        <v>27467</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13279</v>
+        <v>13165</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15901</v>
+        <v>15636</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10385</v>
+        <v>10246</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18756</v>
+        <v>19398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14670</v>
+        <v>13132</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12888</v>
+        <v>12801</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18877</v>
+        <v>19196</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40805</v>
+        <v>41783</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>22841</v>
+        <v>22107</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25933</v>
+        <v>25600</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18931</v>
+        <v>18590</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36910</v>
+        <v>36879</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20477</v>
+        <v>20608</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22870</v>
+        <v>23078</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6319</v>
+        <v>5623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20009</v>
+        <v>19319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15198</v>
+        <v>15451</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23013</v>
+        <v>23256</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28453</v>
+        <v>27856</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>61066</v>
+        <v>62522</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>39692</v>
+        <v>39946</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>50338</v>
+        <v>51545</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35744</v>
+        <v>36016</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60188</v>
+        <v>61977</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40667</v>
+        <v>40177</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45272</v>
+        <v>45401</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17630</v>
+        <v>16442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38621</v>
+        <v>38008</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>30952</v>
+        <v>31917</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>44631</v>
+        <v>44742</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>48161</v>
+        <v>48668</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>91995</v>
+        <v>92968</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>65815</v>
+        <v>66084</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>81385</v>
+        <v>81044</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2303</v>
+        <v>2134</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2259</v>
+        <v>2755</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2053</v>
+        <v>2033</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9102</v>
+        <v>8900</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4106</v>
+        <v>4127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>914</v>
+        <v>944</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5948</v>
+        <v>5869</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4965</v>
+        <v>5743</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8622</v>
+        <v>8502</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4317</v>
+        <v>4357</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>18708</v>
+        <v>17708</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11535</v>
+        <v>11489</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10763</v>
+        <v>11936</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11319</v>
+        <v>11670</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25455</v>
+        <v>25332</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7934</v>
+        <v>7708</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14688</v>
+        <v>14641</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8846</v>
+        <v>9861</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14728</v>
+        <v>14192</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16247</v>
+        <v>16839</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22557</v>
+        <v>22561</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17311</v>
+        <v>16485</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>36534</v>
+        <v>37940</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29408</v>
+        <v>29914</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>57711</v>
+        <v>56967</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33057</v>
+        <v>31479</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>44320</v>
+        <v>46085</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36948</v>
+        <v>35140</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22719</v>
+        <v>22600</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39062</v>
+        <v>39040</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>46697</v>
+        <v>45412</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>102778</v>
+        <v>101143</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>61342</v>
+        <v>59082</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>89690</v>
+        <v>89728</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51030</v>
+        <v>51437</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>88324</v>
+        <v>88003</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55874</v>
+        <v>54780</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>77080</v>
+        <v>75133</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28571</v>
+        <v>28174</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62214</v>
+        <v>61123</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43988</v>
+        <v>43647</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>65154</v>
+        <v>65880</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>73896</v>
+        <v>73287</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>141591</v>
+        <v>140746</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>93418</v>
+        <v>92298</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>131419</v>
+        <v>131928</v>
       </c>
     </row>
     <row r="20">
